--- a/deliverable-docs/79_wil1_prop/79_wil1_prop-resources/03_project-planning.xlsx
+++ b/deliverable-docs/79_wil1_prop/79_wil1_prop-resources/03_project-planning.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Tang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/896b55392444db65/Documents/academics_ust/y3t4/comp4981/comp4981_repositories/FYP-Code/deliverable-docs/79_wil1_prop/79_wil1_prop-resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC581C85-47B3-41E4-B444-9DC06F74E3D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{BC581C85-47B3-41E4-B444-9DC06F74E3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B2F63DA-782C-4330-A78A-308CC659F2B0}"/>
   <bookViews>
-    <workbookView xWindow="2737" yWindow="390" windowWidth="15398" windowHeight="12225" xr2:uid="{D91BC8B3-54B0-4A17-B6B5-C0105816430F}"/>
+    <workbookView xWindow="2295" yWindow="7590" windowWidth="17940" windowHeight="10215" xr2:uid="{D91BC8B3-54B0-4A17-B6B5-C0105816430F}"/>
   </bookViews>
   <sheets>
     <sheet name="Distribution of Work" sheetId="1" r:id="rId1"/>
@@ -590,12 +591,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="81.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -621,7 +622,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -629,7 +630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -637,7 +638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -645,7 +646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -653,7 +654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -661,7 +662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -669,7 +670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -677,7 +678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -685,7 +686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -694,7 +695,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -702,7 +703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -710,7 +711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -718,7 +719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -726,7 +727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -734,7 +735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -742,7 +743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -751,7 +752,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -759,7 +760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -767,7 +768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -775,7 +776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -783,7 +784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
@@ -792,7 +793,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -800,7 +801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -808,7 +809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -816,7 +817,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
@@ -824,7 +825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -832,7 +833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>24</v>
       </c>
@@ -840,7 +841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -859,14 +860,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103A11E4-4950-442B-A7B8-F88B04CF7387}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="81.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -904,7 +905,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -920,7 +921,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,27 +930,27 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -957,7 +958,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -965,19 +966,19 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -993,7 +994,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1002,7 +1003,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1011,7 +1012,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1020,7 +1021,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1032,7 +1033,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1043,13 +1044,13 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1065,7 +1066,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1074,7 +1075,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -1083,7 +1084,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1094,7 +1095,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1102,7 +1103,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
@@ -1118,7 +1119,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -1127,7 +1128,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1136,7 +1137,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -1148,7 +1149,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
@@ -1160,7 +1161,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -1172,7 +1173,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>24</v>
       </c>
